--- a/Plan de invatamant.xlsx
+++ b/Plan de invatamant.xlsx
@@ -726,13 +726,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="0.0"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="29">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -781,6 +781,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -796,23 +804,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -825,9 +835,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -841,32 +850,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -881,15 +866,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -900,14 +877,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -925,6 +894,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -932,19 +902,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="Arial"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <vertAlign val="superscript"/>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -965,7 +954,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -977,169 +1122,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1328,17 +1317,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1369,9 +1352,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1390,175 +1399,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1607,9 +1596,6 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
@@ -1631,9 +1617,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1655,30 +1638,18 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
@@ -1694,9 +1665,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
@@ -1826,10 +1794,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1838,10 +1806,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2201,8 +2169,8 @@
   <sheetPr/>
   <dimension ref="A1:AE47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="S37" sqref="S37"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="X34" sqref="X34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2244,32 +2212,32 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="33" t="s">
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="44" t="s">
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="80" t="s">
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="AB1" s="50"/>
+      <c r="AB1" s="43"/>
     </row>
     <row r="2" ht="13.5" customHeight="1" spans="1:28">
       <c r="A2" s="8"/>
@@ -2281,49 +2249,49 @@
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="33" t="s">
+      <c r="H2" s="21"/>
+      <c r="I2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="34"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="48" t="s">
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="48" t="s">
+      <c r="P2" s="42"/>
+      <c r="Q2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="49"/>
-      <c r="S2" s="48" t="s">
+      <c r="R2" s="42"/>
+      <c r="S2" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="65"/>
-      <c r="U2" s="71" t="s">
+      <c r="T2" s="58"/>
+      <c r="U2" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="72" t="s">
+      <c r="V2" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="48" t="s">
+      <c r="W2" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="X2" s="73" t="s">
+      <c r="X2" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="Y2" s="81">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="82">
-        <v>2</v>
-      </c>
-      <c r="AA2" s="83" t="s">
+      <c r="Y2" s="74">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="75">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="84" t="s">
+      <c r="AB2" s="77" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2336,46 +2304,46 @@
       <c r="D3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25" t="s">
+      <c r="G3" s="22"/>
+      <c r="H3" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="38" t="s">
+      <c r="K3" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="38" t="s">
+      <c r="L3" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="50" t="s">
+      <c r="M3" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="51"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="74"/>
-      <c r="V3" s="75"/>
-      <c r="W3" s="52"/>
-      <c r="X3" s="76"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="86"/>
-      <c r="AA3" s="87"/>
-      <c r="AB3" s="88"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="78"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="81"/>
     </row>
     <row r="4" ht="15.25" customHeight="1" spans="1:28">
       <c r="A4" s="14" t="s">
@@ -2385,56 +2353,56 @@
         <f>LEFT(A4,5)</f>
         <v>1.00 </v>
       </c>
-      <c r="C4" s="16">
-        <v>2</v>
-      </c>
-      <c r="D4" s="17">
-        <v>2</v>
-      </c>
-      <c r="E4" s="17">
-        <v>0</v>
-      </c>
-      <c r="F4" s="26">
-        <v>0</v>
-      </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="27">
-        <v>0</v>
-      </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="54" t="s">
+      <c r="C4" s="15">
+        <v>2</v>
+      </c>
+      <c r="D4" s="16">
+        <v>2</v>
+      </c>
+      <c r="E4" s="16">
+        <v>0</v>
+      </c>
+      <c r="F4" s="24">
+        <v>0</v>
+      </c>
+      <c r="G4" s="24"/>
+      <c r="H4" s="25">
+        <v>0</v>
+      </c>
+      <c r="I4" s="17"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="67"/>
-      <c r="U4" s="40">
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="34">
         <v>125</v>
       </c>
-      <c r="V4" s="17">
+      <c r="V4" s="16">
         <v>28</v>
       </c>
-      <c r="W4" s="77">
+      <c r="W4" s="70">
         <v>28</v>
       </c>
-      <c r="X4" s="78">
+      <c r="X4" s="71">
         <v>69</v>
       </c>
-      <c r="Y4" s="89">
+      <c r="Y4" s="82">
         <v>5</v>
       </c>
-      <c r="Z4" s="90"/>
-      <c r="AA4" s="91" t="s">
+      <c r="Z4" s="83"/>
+      <c r="AA4" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="AB4" s="92" t="s">
+      <c r="AB4" s="85" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2446,56 +2414,56 @@
         <f t="shared" ref="B5:B23" si="0">LEFT(A5,5)</f>
         <v>2.00 </v>
       </c>
-      <c r="C5" s="16">
-        <v>2</v>
-      </c>
-      <c r="D5" s="17">
-        <v>0</v>
-      </c>
-      <c r="E5" s="17">
-        <v>1</v>
-      </c>
-      <c r="F5" s="26">
-        <v>0</v>
-      </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="27">
-        <v>0</v>
-      </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="54" t="s">
+      <c r="C5" s="15">
+        <v>2</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0</v>
+      </c>
+      <c r="E5" s="16">
+        <v>1</v>
+      </c>
+      <c r="F5" s="24">
+        <v>0</v>
+      </c>
+      <c r="G5" s="24"/>
+      <c r="H5" s="25">
+        <v>0</v>
+      </c>
+      <c r="I5" s="17"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="67"/>
-      <c r="U5" s="40">
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="60"/>
+      <c r="U5" s="34">
         <v>75</v>
       </c>
-      <c r="V5" s="17">
+      <c r="V5" s="16">
         <v>28</v>
       </c>
-      <c r="W5" s="77">
+      <c r="W5" s="70">
         <v>14</v>
       </c>
-      <c r="X5" s="78">
+      <c r="X5" s="71">
         <v>33</v>
       </c>
-      <c r="Y5" s="89">
+      <c r="Y5" s="82">
         <v>3</v>
       </c>
-      <c r="Z5" s="90"/>
-      <c r="AA5" s="91" t="s">
+      <c r="Z5" s="83"/>
+      <c r="AA5" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="AB5" s="92" t="s">
+      <c r="AB5" s="85" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2507,56 +2475,56 @@
         <f t="shared" si="0"/>
         <v>3.00 </v>
       </c>
-      <c r="C6" s="16">
-        <v>2</v>
-      </c>
-      <c r="D6" s="17">
-        <v>0</v>
-      </c>
-      <c r="E6" s="17">
-        <v>1</v>
-      </c>
-      <c r="F6" s="26">
-        <v>0</v>
-      </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="27">
-        <v>0</v>
-      </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="56" t="s">
+      <c r="C6" s="15">
+        <v>2</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0</v>
+      </c>
+      <c r="E6" s="16">
+        <v>1</v>
+      </c>
+      <c r="F6" s="24">
+        <v>0</v>
+      </c>
+      <c r="G6" s="24"/>
+      <c r="H6" s="25">
+        <v>0</v>
+      </c>
+      <c r="I6" s="17"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="O6" s="57"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="57"/>
-      <c r="R6" s="57"/>
-      <c r="S6" s="57"/>
-      <c r="T6" s="68"/>
-      <c r="U6" s="40">
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="34">
         <v>75</v>
       </c>
-      <c r="V6" s="17">
+      <c r="V6" s="16">
         <v>28</v>
       </c>
-      <c r="W6" s="77">
+      <c r="W6" s="70">
         <v>14</v>
       </c>
-      <c r="X6" s="78">
+      <c r="X6" s="71">
         <v>33</v>
       </c>
-      <c r="Y6" s="89">
+      <c r="Y6" s="82">
         <v>3</v>
       </c>
-      <c r="Z6" s="90"/>
-      <c r="AA6" s="91" t="s">
+      <c r="Z6" s="83"/>
+      <c r="AA6" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="AB6" s="92" t="s">
+      <c r="AB6" s="85" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2568,56 +2536,56 @@
         <f t="shared" si="0"/>
         <v>4.00 </v>
       </c>
-      <c r="C7" s="16">
-        <v>2</v>
-      </c>
-      <c r="D7" s="17">
-        <v>0</v>
-      </c>
-      <c r="E7" s="17">
-        <v>2</v>
-      </c>
-      <c r="F7" s="26">
-        <v>0</v>
-      </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="27">
-        <v>0</v>
-      </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="54" t="s">
+      <c r="C7" s="15">
+        <v>2</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0</v>
+      </c>
+      <c r="E7" s="16">
+        <v>2</v>
+      </c>
+      <c r="F7" s="24">
+        <v>0</v>
+      </c>
+      <c r="G7" s="24"/>
+      <c r="H7" s="25">
+        <v>0</v>
+      </c>
+      <c r="I7" s="17"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="55"/>
-      <c r="S7" s="55"/>
-      <c r="T7" s="67"/>
-      <c r="U7" s="40">
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="48"/>
+      <c r="S7" s="48"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="34">
         <v>125</v>
       </c>
-      <c r="V7" s="17">
+      <c r="V7" s="16">
         <v>28</v>
       </c>
-      <c r="W7" s="77">
+      <c r="W7" s="70">
         <v>28</v>
       </c>
-      <c r="X7" s="78">
+      <c r="X7" s="71">
         <v>69</v>
       </c>
-      <c r="Y7" s="89">
+      <c r="Y7" s="82">
         <v>5</v>
       </c>
-      <c r="Z7" s="90"/>
-      <c r="AA7" s="91" t="s">
+      <c r="Z7" s="83"/>
+      <c r="AA7" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="AB7" s="92" t="s">
+      <c r="AB7" s="85" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2629,56 +2597,56 @@
         <f t="shared" si="0"/>
         <v>5.00 </v>
       </c>
-      <c r="C8" s="16">
-        <v>2</v>
-      </c>
-      <c r="D8" s="17">
-        <v>1</v>
-      </c>
-      <c r="E8" s="17">
-        <v>0</v>
-      </c>
-      <c r="F8" s="26">
-        <v>0</v>
-      </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="27">
-        <v>0</v>
-      </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="54" t="s">
+      <c r="C8" s="15">
+        <v>2</v>
+      </c>
+      <c r="D8" s="16">
+        <v>1</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0</v>
+      </c>
+      <c r="F8" s="24">
+        <v>0</v>
+      </c>
+      <c r="G8" s="24"/>
+      <c r="H8" s="25">
+        <v>0</v>
+      </c>
+      <c r="I8" s="17"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="O8" s="55"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="55"/>
-      <c r="S8" s="55"/>
-      <c r="T8" s="67"/>
-      <c r="U8" s="40">
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="60"/>
+      <c r="U8" s="34">
         <v>100</v>
       </c>
-      <c r="V8" s="17">
+      <c r="V8" s="16">
         <v>28</v>
       </c>
-      <c r="W8" s="77">
+      <c r="W8" s="70">
         <v>14</v>
       </c>
-      <c r="X8" s="78">
+      <c r="X8" s="71">
         <v>58</v>
       </c>
-      <c r="Y8" s="89">
+      <c r="Y8" s="82">
         <v>4</v>
       </c>
-      <c r="Z8" s="90"/>
-      <c r="AA8" s="91" t="s">
+      <c r="Z8" s="83"/>
+      <c r="AA8" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="AB8" s="92" t="s">
+      <c r="AB8" s="85" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2690,56 +2658,56 @@
         <f t="shared" si="0"/>
         <v>6.00 </v>
       </c>
-      <c r="C9" s="16">
-        <v>1</v>
-      </c>
-      <c r="D9" s="17">
-        <v>0</v>
-      </c>
-      <c r="E9" s="17">
-        <v>2</v>
-      </c>
-      <c r="F9" s="26">
-        <v>0</v>
-      </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="27">
-        <v>0</v>
-      </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="56" t="s">
+      <c r="C9" s="15">
+        <v>1</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0</v>
+      </c>
+      <c r="E9" s="16">
+        <v>2</v>
+      </c>
+      <c r="F9" s="24">
+        <v>0</v>
+      </c>
+      <c r="G9" s="24"/>
+      <c r="H9" s="25">
+        <v>0</v>
+      </c>
+      <c r="I9" s="17"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="68"/>
-      <c r="U9" s="40">
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="34">
         <v>75</v>
       </c>
-      <c r="V9" s="17">
+      <c r="V9" s="16">
         <v>14</v>
       </c>
-      <c r="W9" s="77">
+      <c r="W9" s="70">
         <v>28</v>
       </c>
-      <c r="X9" s="78">
+      <c r="X9" s="71">
         <v>33</v>
       </c>
-      <c r="Y9" s="89">
+      <c r="Y9" s="82">
         <v>3</v>
       </c>
-      <c r="Z9" s="90"/>
-      <c r="AA9" s="91" t="s">
+      <c r="Z9" s="83"/>
+      <c r="AA9" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="AB9" s="92" t="s">
+      <c r="AB9" s="85" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2751,56 +2719,56 @@
         <f t="shared" si="0"/>
         <v>7.00 </v>
       </c>
-      <c r="C10" s="16">
-        <v>1</v>
-      </c>
-      <c r="D10" s="17">
-        <v>1</v>
-      </c>
-      <c r="E10" s="17">
-        <v>0</v>
-      </c>
-      <c r="F10" s="26">
-        <v>0</v>
-      </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="27">
-        <v>0</v>
-      </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="56" t="s">
+      <c r="C10" s="15">
+        <v>1</v>
+      </c>
+      <c r="D10" s="16">
+        <v>1</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0</v>
+      </c>
+      <c r="F10" s="24">
+        <v>0</v>
+      </c>
+      <c r="G10" s="24"/>
+      <c r="H10" s="25">
+        <v>0</v>
+      </c>
+      <c r="I10" s="17"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="68"/>
-      <c r="U10" s="40">
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="61"/>
+      <c r="U10" s="34">
         <v>50</v>
       </c>
-      <c r="V10" s="17">
+      <c r="V10" s="16">
         <v>14</v>
       </c>
-      <c r="W10" s="77">
+      <c r="W10" s="70">
         <v>14</v>
       </c>
-      <c r="X10" s="78">
+      <c r="X10" s="71">
         <v>22</v>
       </c>
-      <c r="Y10" s="89">
-        <v>2</v>
-      </c>
-      <c r="Z10" s="90"/>
-      <c r="AA10" s="91" t="s">
+      <c r="Y10" s="82">
+        <v>2</v>
+      </c>
+      <c r="Z10" s="83"/>
+      <c r="AA10" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="AB10" s="92" t="s">
+      <c r="AB10" s="85" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2812,56 +2780,56 @@
         <f t="shared" si="0"/>
         <v>8.00 </v>
       </c>
-      <c r="C11" s="16">
-        <v>0</v>
-      </c>
-      <c r="D11" s="17">
-        <v>2</v>
-      </c>
-      <c r="E11" s="17">
-        <v>0</v>
-      </c>
-      <c r="F11" s="26">
-        <v>0</v>
-      </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="27">
-        <v>0</v>
-      </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="58" t="s">
+      <c r="C11" s="15">
+        <v>0</v>
+      </c>
+      <c r="D11" s="16">
+        <v>2</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0</v>
+      </c>
+      <c r="F11" s="24">
+        <v>0</v>
+      </c>
+      <c r="G11" s="24"/>
+      <c r="H11" s="25">
+        <v>0</v>
+      </c>
+      <c r="I11" s="17"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="59"/>
-      <c r="T11" s="69"/>
-      <c r="U11" s="40">
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="62"/>
+      <c r="U11" s="34">
         <v>75</v>
       </c>
-      <c r="V11" s="17">
-        <v>0</v>
-      </c>
-      <c r="W11" s="77">
+      <c r="V11" s="16">
+        <v>0</v>
+      </c>
+      <c r="W11" s="70">
         <v>28</v>
       </c>
-      <c r="X11" s="78">
+      <c r="X11" s="71">
         <v>47</v>
       </c>
-      <c r="Y11" s="89">
+      <c r="Y11" s="82">
         <v>3</v>
       </c>
-      <c r="Z11" s="90"/>
-      <c r="AA11" s="91" t="s">
+      <c r="Z11" s="83"/>
+      <c r="AA11" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="AB11" s="92" t="s">
+      <c r="AB11" s="85" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2873,56 +2841,56 @@
         <f t="shared" si="0"/>
         <v>9.00 </v>
       </c>
-      <c r="C12" s="16">
-        <v>0</v>
-      </c>
-      <c r="D12" s="17">
-        <v>2</v>
-      </c>
-      <c r="E12" s="17">
-        <v>0</v>
-      </c>
-      <c r="F12" s="26">
-        <v>0</v>
-      </c>
-      <c r="G12" s="26"/>
-      <c r="H12" s="27">
-        <v>0</v>
-      </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="58" t="s">
+      <c r="C12" s="15">
+        <v>0</v>
+      </c>
+      <c r="D12" s="16">
+        <v>2</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0</v>
+      </c>
+      <c r="F12" s="24">
+        <v>0</v>
+      </c>
+      <c r="G12" s="24"/>
+      <c r="H12" s="25">
+        <v>0</v>
+      </c>
+      <c r="I12" s="17"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="59"/>
-      <c r="T12" s="69"/>
-      <c r="U12" s="40">
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="52"/>
+      <c r="T12" s="62"/>
+      <c r="U12" s="34">
         <v>50</v>
       </c>
-      <c r="V12" s="17">
-        <v>0</v>
-      </c>
-      <c r="W12" s="77">
+      <c r="V12" s="16">
+        <v>0</v>
+      </c>
+      <c r="W12" s="70">
         <v>28</v>
       </c>
-      <c r="X12" s="78">
+      <c r="X12" s="71">
         <v>22</v>
       </c>
-      <c r="Y12" s="89">
-        <v>2</v>
-      </c>
-      <c r="Z12" s="90"/>
-      <c r="AA12" s="91" t="s">
+      <c r="Y12" s="82">
+        <v>2</v>
+      </c>
+      <c r="Z12" s="83"/>
+      <c r="AA12" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="AB12" s="92" t="s">
+      <c r="AB12" s="85" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2934,13 +2902,13 @@
         <f t="shared" si="0"/>
         <v>10.00</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="40">
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="34">
         <v>2</v>
       </c>
       <c r="J13">
@@ -2955,35 +2923,35 @@
       <c r="M13">
         <v>0</v>
       </c>
-      <c r="N13" s="54" t="s">
+      <c r="N13" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="55"/>
-      <c r="S13" s="55"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="40">
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="34">
         <v>75</v>
       </c>
-      <c r="V13" s="17">
+      <c r="V13" s="16">
         <v>28</v>
       </c>
-      <c r="W13" s="77">
+      <c r="W13" s="70">
         <v>14</v>
       </c>
-      <c r="X13" s="78">
+      <c r="X13" s="71">
         <v>33</v>
       </c>
-      <c r="Y13" s="93"/>
-      <c r="Z13" s="94">
+      <c r="Y13" s="86"/>
+      <c r="Z13" s="87">
         <v>3</v>
       </c>
-      <c r="AA13" s="91" t="s">
+      <c r="AA13" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="AB13" s="92" t="s">
+      <c r="AB13" s="85" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2995,13 +2963,13 @@
         <f t="shared" si="0"/>
         <v>11.00</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="40">
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="34">
         <v>2</v>
       </c>
       <c r="J14">
@@ -3016,35 +2984,35 @@
       <c r="M14">
         <v>0</v>
       </c>
-      <c r="N14" s="56" t="s">
+      <c r="N14" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="68"/>
-      <c r="U14" s="40">
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="61"/>
+      <c r="U14" s="34">
         <v>100</v>
       </c>
-      <c r="V14" s="17">
+      <c r="V14" s="16">
         <v>28</v>
       </c>
-      <c r="W14" s="77">
+      <c r="W14" s="70">
         <v>28</v>
       </c>
-      <c r="X14" s="78">
+      <c r="X14" s="71">
         <v>44</v>
       </c>
-      <c r="Y14" s="93"/>
-      <c r="Z14" s="94">
+      <c r="Y14" s="86"/>
+      <c r="Z14" s="87">
         <v>4</v>
       </c>
-      <c r="AA14" s="91" t="s">
+      <c r="AA14" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="AB14" s="92" t="s">
+      <c r="AB14" s="85" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3056,13 +3024,13 @@
         <f t="shared" si="0"/>
         <v>12.00</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="40">
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="34">
         <v>1</v>
       </c>
       <c r="J15">
@@ -3077,35 +3045,35 @@
       <c r="M15">
         <v>0</v>
       </c>
-      <c r="N15" s="56" t="s">
+      <c r="N15" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="57"/>
-      <c r="S15" s="57"/>
-      <c r="T15" s="68"/>
-      <c r="U15" s="40">
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="61"/>
+      <c r="U15" s="34">
         <v>75</v>
       </c>
-      <c r="V15" s="17">
+      <c r="V15" s="16">
         <v>14</v>
       </c>
-      <c r="W15" s="77">
+      <c r="W15" s="70">
         <v>14</v>
       </c>
-      <c r="X15" s="78">
+      <c r="X15" s="71">
         <v>47</v>
       </c>
-      <c r="Y15" s="93"/>
-      <c r="Z15" s="94">
+      <c r="Y15" s="86"/>
+      <c r="Z15" s="87">
         <v>3</v>
       </c>
-      <c r="AA15" s="91" t="s">
+      <c r="AA15" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="AB15" s="92" t="s">
+      <c r="AB15" s="85" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3117,13 +3085,13 @@
         <f t="shared" si="0"/>
         <v>13.00</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="40">
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="34">
         <v>2</v>
       </c>
       <c r="J16">
@@ -3138,35 +3106,35 @@
       <c r="M16">
         <v>0</v>
       </c>
-      <c r="N16" s="54" t="s">
+      <c r="N16" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="55"/>
-      <c r="S16" s="55"/>
-      <c r="T16" s="67"/>
-      <c r="U16" s="40">
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="60"/>
+      <c r="U16" s="34">
         <v>100</v>
       </c>
-      <c r="V16" s="17">
+      <c r="V16" s="16">
         <v>28</v>
       </c>
-      <c r="W16" s="77">
+      <c r="W16" s="70">
         <v>28</v>
       </c>
-      <c r="X16" s="78">
+      <c r="X16" s="71">
         <v>44</v>
       </c>
-      <c r="Y16" s="93"/>
-      <c r="Z16" s="94">
+      <c r="Y16" s="86"/>
+      <c r="Z16" s="87">
         <v>4</v>
       </c>
-      <c r="AA16" s="91" t="s">
+      <c r="AA16" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="AB16" s="92" t="s">
+      <c r="AB16" s="85" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3178,13 +3146,13 @@
         <f t="shared" si="0"/>
         <v>14.00</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="40">
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="34">
         <v>2</v>
       </c>
       <c r="J17">
@@ -3199,35 +3167,35 @@
       <c r="M17">
         <v>0</v>
       </c>
-      <c r="N17" s="54" t="s">
+      <c r="N17" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="55"/>
-      <c r="S17" s="55"/>
-      <c r="T17" s="67"/>
-      <c r="U17" s="40">
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="60"/>
+      <c r="U17" s="34">
         <v>75</v>
       </c>
-      <c r="V17" s="17">
+      <c r="V17" s="16">
         <v>28</v>
       </c>
-      <c r="W17" s="77">
+      <c r="W17" s="70">
         <v>14</v>
       </c>
-      <c r="X17" s="78">
+      <c r="X17" s="71">
         <v>33</v>
       </c>
-      <c r="Y17" s="93"/>
-      <c r="Z17" s="94">
+      <c r="Y17" s="86"/>
+      <c r="Z17" s="87">
         <v>3</v>
       </c>
-      <c r="AA17" s="91" t="s">
+      <c r="AA17" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="AB17" s="92" t="s">
+      <c r="AB17" s="85" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3239,13 +3207,13 @@
         <f t="shared" si="0"/>
         <v>15.00</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="40">
+      <c r="C18" s="17"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="34">
         <v>2</v>
       </c>
       <c r="J18">
@@ -3260,35 +3228,35 @@
       <c r="M18">
         <v>0</v>
       </c>
-      <c r="N18" s="54" t="s">
+      <c r="N18" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="O18" s="55"/>
-      <c r="P18" s="55"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="55"/>
-      <c r="S18" s="55"/>
-      <c r="T18" s="67"/>
-      <c r="U18" s="40">
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="60"/>
+      <c r="U18" s="34">
         <v>100</v>
       </c>
-      <c r="V18" s="17">
+      <c r="V18" s="16">
         <v>28</v>
       </c>
-      <c r="W18" s="77">
+      <c r="W18" s="70">
         <v>28</v>
       </c>
-      <c r="X18" s="78">
+      <c r="X18" s="71">
         <v>44</v>
       </c>
-      <c r="Y18" s="93"/>
-      <c r="Z18" s="94">
+      <c r="Y18" s="86"/>
+      <c r="Z18" s="87">
         <v>4</v>
       </c>
-      <c r="AA18" s="91" t="s">
+      <c r="AA18" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="AB18" s="92" t="s">
+      <c r="AB18" s="85" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3300,13 +3268,13 @@
         <f t="shared" si="0"/>
         <v>16.10</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="40">
+      <c r="C19" s="17"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="34">
         <v>1</v>
       </c>
       <c r="J19">
@@ -3321,35 +3289,35 @@
       <c r="M19">
         <v>0</v>
       </c>
-      <c r="N19" s="56" t="s">
+      <c r="N19" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="57"/>
-      <c r="S19" s="57"/>
-      <c r="T19" s="68"/>
-      <c r="U19" s="40">
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="50"/>
+      <c r="S19" s="50"/>
+      <c r="T19" s="61"/>
+      <c r="U19" s="34">
         <v>50</v>
       </c>
-      <c r="V19" s="17">
+      <c r="V19" s="16">
         <v>14</v>
       </c>
-      <c r="W19" s="77">
+      <c r="W19" s="70">
         <v>14</v>
       </c>
-      <c r="X19" s="78">
+      <c r="X19" s="71">
         <v>22</v>
       </c>
-      <c r="Y19" s="93"/>
-      <c r="Z19" s="94">
-        <v>2</v>
-      </c>
-      <c r="AA19" s="91" t="s">
+      <c r="Y19" s="86"/>
+      <c r="Z19" s="87">
+        <v>2</v>
+      </c>
+      <c r="AA19" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="AB19" s="92" t="s">
+      <c r="AB19" s="85" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3361,13 +3329,13 @@
         <f t="shared" si="0"/>
         <v>16.20</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="40">
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="34">
         <v>1</v>
       </c>
       <c r="J20">
@@ -3382,35 +3350,35 @@
       <c r="M20">
         <v>0</v>
       </c>
-      <c r="N20" s="56" t="s">
+      <c r="N20" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="O20" s="57"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="57"/>
-      <c r="S20" s="57"/>
-      <c r="T20" s="68"/>
-      <c r="U20" s="40">
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="50"/>
+      <c r="T20" s="61"/>
+      <c r="U20" s="34">
         <v>50</v>
       </c>
-      <c r="V20" s="17">
+      <c r="V20" s="16">
         <v>14</v>
       </c>
-      <c r="W20" s="77">
+      <c r="W20" s="70">
         <v>14</v>
       </c>
-      <c r="X20" s="78">
+      <c r="X20" s="71">
         <v>22</v>
       </c>
-      <c r="Y20" s="93"/>
-      <c r="Z20" s="94">
-        <v>2</v>
-      </c>
-      <c r="AA20" s="91" t="s">
+      <c r="Y20" s="86"/>
+      <c r="Z20" s="87">
+        <v>2</v>
+      </c>
+      <c r="AA20" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="AB20" s="92" t="s">
+      <c r="AB20" s="85" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3422,13 +3390,13 @@
         <f t="shared" si="0"/>
         <v>17.00</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="40">
+      <c r="C21" s="17"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="34">
         <v>0</v>
       </c>
       <c r="J21">
@@ -3443,35 +3411,35 @@
       <c r="M21">
         <v>0</v>
       </c>
-      <c r="N21" s="58" t="s">
+      <c r="N21" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="59"/>
-      <c r="S21" s="59"/>
-      <c r="T21" s="69"/>
-      <c r="U21" s="40">
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="62"/>
+      <c r="U21" s="34">
         <v>50</v>
       </c>
-      <c r="V21" s="17">
-        <v>0</v>
-      </c>
-      <c r="W21" s="77">
+      <c r="V21" s="16">
+        <v>0</v>
+      </c>
+      <c r="W21" s="70">
         <v>28</v>
       </c>
-      <c r="X21" s="78">
+      <c r="X21" s="71">
         <v>22</v>
       </c>
-      <c r="Y21" s="93"/>
-      <c r="Z21" s="94">
-        <v>2</v>
-      </c>
-      <c r="AA21" s="91" t="s">
+      <c r="Y21" s="86"/>
+      <c r="Z21" s="87">
+        <v>2</v>
+      </c>
+      <c r="AA21" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="AB21" s="92" t="s">
+      <c r="AB21" s="85" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3483,13 +3451,13 @@
         <f t="shared" si="0"/>
         <v>18.00</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="40">
+      <c r="C22" s="17"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="34">
         <v>0</v>
       </c>
       <c r="J22">
@@ -3504,35 +3472,35 @@
       <c r="M22">
         <v>0</v>
       </c>
-      <c r="N22" s="58" t="s">
+      <c r="N22" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="59"/>
-      <c r="S22" s="59"/>
-      <c r="T22" s="69"/>
-      <c r="U22" s="40">
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="62"/>
+      <c r="U22" s="34">
         <v>50</v>
       </c>
-      <c r="V22" s="17">
-        <v>0</v>
-      </c>
-      <c r="W22" s="77">
+      <c r="V22" s="16">
+        <v>0</v>
+      </c>
+      <c r="W22" s="70">
         <v>28</v>
       </c>
-      <c r="X22" s="78">
+      <c r="X22" s="71">
         <v>22</v>
       </c>
-      <c r="Y22" s="93"/>
-      <c r="Z22" s="94">
-        <v>2</v>
-      </c>
-      <c r="AA22" s="91" t="s">
+      <c r="Y22" s="86"/>
+      <c r="Z22" s="87">
+        <v>2</v>
+      </c>
+      <c r="AA22" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="AB22" s="92" t="s">
+      <c r="AB22" s="85" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3544,13 +3512,13 @@
         <f t="shared" si="0"/>
         <v>19.00</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="40">
+      <c r="C23" s="17"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="34">
         <v>0</v>
       </c>
       <c r="J23">
@@ -3565,67 +3533,67 @@
       <c r="M23">
         <v>30</v>
       </c>
-      <c r="N23" s="58" t="s">
+      <c r="N23" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="O23" s="59"/>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="59"/>
-      <c r="S23" s="59"/>
-      <c r="T23" s="69"/>
-      <c r="U23" s="40">
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="52"/>
+      <c r="S23" s="52"/>
+      <c r="T23" s="62"/>
+      <c r="U23" s="34">
         <v>75</v>
       </c>
-      <c r="V23" s="17">
-        <v>0</v>
-      </c>
-      <c r="W23" s="77">
+      <c r="V23" s="16">
+        <v>0</v>
+      </c>
+      <c r="W23" s="70">
         <v>60</v>
       </c>
-      <c r="X23" s="78">
+      <c r="X23" s="71">
         <v>15</v>
       </c>
-      <c r="Y23" s="93"/>
-      <c r="Z23" s="94">
+      <c r="Y23" s="86"/>
+      <c r="Z23" s="87">
         <v>3</v>
       </c>
-      <c r="AA23" s="91" t="s">
+      <c r="AA23" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="AB23" s="92" t="s">
+      <c r="AB23" s="85" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" ht="29.75" customHeight="1" spans="1:28">
-      <c r="A24" s="20"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="15"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="60"/>
-      <c r="N24" s="61"/>
-      <c r="O24" s="62"/>
-      <c r="P24" s="63"/>
-      <c r="Q24" s="62"/>
-      <c r="R24" s="63"/>
-      <c r="S24" s="62"/>
-      <c r="T24" s="70"/>
-      <c r="U24" s="79"/>
-      <c r="V24" s="17"/>
-      <c r="W24" s="77"/>
-      <c r="X24" s="78"/>
-      <c r="Y24" s="95"/>
-      <c r="Z24" s="29"/>
-      <c r="AA24" s="96"/>
-      <c r="AB24" s="97"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="55"/>
+      <c r="T24" s="63"/>
+      <c r="U24" s="72"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="70"/>
+      <c r="X24" s="71"/>
+      <c r="Y24" s="88"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="89"/>
+      <c r="AB24" s="90"/>
     </row>
     <row r="26" spans="10:10">
       <c r="J26" t="s">
@@ -3721,44 +3689,44 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" ht="28" customHeight="1" spans="1:19">
+    <row r="28" ht="28" customHeight="1" spans="1:31">
       <c r="A28" t="str">
         <f>RIGHT(A4,LEN(A4)-8)</f>
         <v>Analiza matematica</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="F28" s="21" t="s">
+      <c r="F28" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="G28" s="21" t="s">
+      <c r="G28" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="H28" s="21" t="s">
+      <c r="H28" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="I28" s="21" t="s">
+      <c r="I28" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="J28" s="21" t="s">
+      <c r="J28" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K28" s="21" t="s">
+      <c r="K28" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21">
-        <v>1</v>
-      </c>
-      <c r="O28" s="21">
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20">
+        <v>1</v>
+      </c>
+      <c r="O28" s="20">
         <v>1</v>
       </c>
       <c r="Q28" t="str">
@@ -3770,34 +3738,54 @@
         <v>DI</v>
       </c>
       <c r="S28">
-        <f>SUM(C4:E4)</f>
+        <f t="shared" ref="S28:S36" si="1">SUM(C4:E4)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="29" ht="25.5" spans="1:19">
+      <c r="T28">
+        <f>C4</f>
+        <v>2</v>
+      </c>
+      <c r="U28">
+        <f>D4</f>
+        <v>2</v>
+      </c>
+      <c r="V28">
+        <f>E4</f>
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <f>F4</f>
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <f>Y4</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" spans="1:31">
       <c r="A29" t="str">
-        <f t="shared" ref="A29:A47" si="1">RIGHT(A5,LEN(A5)-8)</f>
+        <f t="shared" ref="A29:A47" si="2">RIGHT(A5,LEN(A5)-8)</f>
         <v>Chimie</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21" t="s">
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="K29" s="21" t="s">
+      <c r="K29" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21">
-        <v>1</v>
-      </c>
-      <c r="O29" s="21">
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20">
+        <v>1</v>
+      </c>
+      <c r="O29" s="20">
         <v>1</v>
       </c>
       <c r="Q29" t="str">
@@ -3805,375 +3793,607 @@
         <v>DF</v>
       </c>
       <c r="R29" t="str">
-        <f t="shared" ref="R29:R47" si="2">AB5</f>
+        <f t="shared" ref="R29:R47" si="3">AB5</f>
         <v>DI</v>
       </c>
       <c r="S29">
-        <f>SUM(C5:E5)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="30" ht="30" customHeight="1" spans="1:19">
+      <c r="T29">
+        <f t="shared" ref="T29:T36" si="4">C5</f>
+        <v>2</v>
+      </c>
+      <c r="U29">
+        <f t="shared" ref="U29:U36" si="5">D5</f>
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <f t="shared" ref="V29:V36" si="6">E5</f>
+        <v>1</v>
+      </c>
+      <c r="W29">
+        <f t="shared" ref="W29:W36" si="7">F5</f>
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <f t="shared" ref="AE29:AE36" si="8">Y5</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" ht="30" customHeight="1" spans="1:31">
       <c r="A30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Stiinta si ingineria materialelor</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21" t="s">
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="K30" s="21" t="s">
+      <c r="K30" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21">
-        <v>1</v>
-      </c>
-      <c r="O30" s="21"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20">
+        <v>1</v>
+      </c>
+      <c r="O30" s="20"/>
       <c r="Q30" t="str">
         <f>AA6</f>
         <v>DD</v>
       </c>
       <c r="R30" t="str">
+        <f t="shared" si="3"/>
+        <v>DI</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" ht="25" customHeight="1" spans="1:31">
+      <c r="A31" t="str">
         <f t="shared" si="2"/>
-        <v>DI</v>
-      </c>
-      <c r="S30">
-        <f>SUM(C6:E6)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" ht="25" customHeight="1" spans="1:19">
-      <c r="A31" t="str">
-        <f t="shared" si="1"/>
         <v>Geometrie descriptiva</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21" t="s">
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="K31" s="21" t="s">
+      <c r="K31" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21">
-        <v>1</v>
-      </c>
-      <c r="O31" s="21"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20">
+        <v>1</v>
+      </c>
+      <c r="O31" s="20"/>
       <c r="Q31" t="str">
         <f>AA7</f>
         <v>DF</v>
       </c>
       <c r="R31" t="str">
+        <f t="shared" si="3"/>
+        <v>DI</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" ht="24" customHeight="1" spans="1:31">
+      <c r="A32" t="str">
         <f t="shared" si="2"/>
+        <v>Algebra liniara, geometrie analitica si diferentiala</v>
+      </c>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="K32" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20">
+        <v>1</v>
+      </c>
+      <c r="O32" s="20"/>
+      <c r="Q32" t="str">
+        <f t="shared" ref="Q32:Q47" si="9">AA8</f>
+        <v>DF</v>
+      </c>
+      <c r="R32" t="str">
+        <f t="shared" si="3"/>
         <v>DI</v>
       </c>
-      <c r="S31">
-        <f>SUM(C7:E7)</f>
+      <c r="S32">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
     </row>
-    <row r="32" ht="24" customHeight="1" spans="1:19">
-      <c r="A32" t="str">
+    <row r="33" ht="24" customHeight="1" spans="1:31">
+      <c r="A33" t="str">
+        <f t="shared" si="2"/>
+        <v>Programarea calculatoarelor si limbaje de programare I</v>
+      </c>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="K33" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20">
+        <v>1</v>
+      </c>
+      <c r="O33" s="20"/>
+      <c r="Q33" t="str">
+        <f t="shared" si="9"/>
+        <v>DF</v>
+      </c>
+      <c r="R33" t="str">
+        <f t="shared" si="3"/>
+        <v>DI</v>
+      </c>
+      <c r="S33">
         <f t="shared" si="1"/>
-        <v>Algebra liniara, geometrie analitica si diferentiala</v>
-      </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="K32" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21">
-        <v>1</v>
-      </c>
-      <c r="O32" s="21"/>
-      <c r="Q32" t="str">
-        <f t="shared" ref="Q32:Q47" si="3">AA8</f>
+        <v>3</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" ht="31" customHeight="1" spans="1:31">
+      <c r="A34" t="str">
+        <f t="shared" si="2"/>
+        <v>Disciplina socio-umana I</v>
+      </c>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="K34" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20">
+        <v>1</v>
+      </c>
+      <c r="O34" s="20"/>
+      <c r="Q34" t="str">
+        <f t="shared" si="9"/>
+        <v>DC</v>
+      </c>
+      <c r="R34" t="str">
+        <f t="shared" si="3"/>
+        <v>DI</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" ht="38.25" spans="1:31">
+      <c r="A35" t="str">
+        <f t="shared" si="2"/>
+        <v>Limbi moderne 1</v>
+      </c>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="K35" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20">
+        <v>1</v>
+      </c>
+      <c r="O35" s="20"/>
+      <c r="Q35" t="str">
+        <f t="shared" si="9"/>
+        <v>DC</v>
+      </c>
+      <c r="R35" t="str">
+        <f t="shared" si="3"/>
+        <v>DI</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" ht="29" customHeight="1" spans="1:31">
+      <c r="A36" t="str">
+        <f t="shared" si="2"/>
+        <v>Educatie fizica si sport I</v>
+      </c>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="K36" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20">
+        <v>1</v>
+      </c>
+      <c r="O36" s="20"/>
+      <c r="Q36" t="str">
+        <f t="shared" si="9"/>
+        <v>DC</v>
+      </c>
+      <c r="R36" t="str">
+        <f t="shared" si="3"/>
+        <v>DI</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" ht="19" customHeight="1" spans="1:31">
+      <c r="A37" t="str">
+        <f t="shared" si="2"/>
+        <v>Matematici speciale</v>
+      </c>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="K37" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20">
+        <v>1</v>
+      </c>
+      <c r="O37" s="20"/>
+      <c r="Q37" t="str">
+        <f t="shared" si="9"/>
         <v>DF</v>
       </c>
-      <c r="R32" t="str">
+      <c r="R37" t="str">
+        <f t="shared" si="3"/>
+        <v>DI</v>
+      </c>
+      <c r="S37">
+        <f>SUM(I13:K13)</f>
+        <v>3</v>
+      </c>
+      <c r="T37">
+        <f>I13</f>
+        <v>2</v>
+      </c>
+      <c r="U37">
+        <f>J13</f>
+        <v>1</v>
+      </c>
+      <c r="V37">
+        <f>K13</f>
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <f t="shared" ref="W37:W47" si="10">F13</f>
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <f>Z13</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" ht="27" customHeight="1" spans="1:31">
+      <c r="A38" t="str">
         <f t="shared" si="2"/>
+        <v>Desen tehnic si infografica I</v>
+      </c>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="K38" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20">
+        <v>1</v>
+      </c>
+      <c r="O38" s="20"/>
+      <c r="Q38" t="str">
+        <f t="shared" si="9"/>
+        <v>DF</v>
+      </c>
+      <c r="R38" t="str">
+        <f t="shared" si="3"/>
         <v>DI</v>
       </c>
-      <c r="S32">
-        <f>SUM(C8:E8)</f>
+      <c r="S38">
+        <f t="shared" ref="S38:S47" si="11">SUM(I14:K14)</f>
+        <v>4</v>
+      </c>
+      <c r="T38">
+        <f t="shared" ref="T38:T47" si="12">I14</f>
+        <v>2</v>
+      </c>
+      <c r="U38">
+        <f t="shared" ref="U38:U47" si="13">J14</f>
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <f t="shared" ref="V38:V47" si="14">K14</f>
+        <v>2</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <f t="shared" ref="AE38:AE47" si="15">Z14</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" ht="21" customHeight="1" spans="1:31">
+      <c r="A39" t="str">
+        <f t="shared" si="2"/>
+        <v>Programarea calculatoarelor si limbaje de programare II</v>
+      </c>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="K39" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20">
+        <v>1</v>
+      </c>
+      <c r="O39" s="20"/>
+      <c r="Q39" t="str">
+        <f t="shared" si="9"/>
+        <v>DF</v>
+      </c>
+      <c r="R39" t="str">
+        <f t="shared" si="3"/>
+        <v>DI</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
     </row>
-    <row r="33" ht="24" customHeight="1" spans="1:19">
-      <c r="A33" t="str">
-        <f t="shared" si="1"/>
-        <v>Programarea calculatoarelor si limbaje de programare I</v>
-      </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="K33" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21">
-        <v>1</v>
-      </c>
-      <c r="O33" s="21"/>
-      <c r="Q33" t="str">
-        <f t="shared" si="3"/>
-        <v>DF</v>
-      </c>
-      <c r="R33" t="str">
+    <row r="40" spans="1:31">
+      <c r="A40" t="str">
         <f t="shared" si="2"/>
-        <v>DI</v>
-      </c>
-      <c r="S33">
-        <f>SUM(C9:E9)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" ht="31" customHeight="1" spans="1:19">
-      <c r="A34" t="str">
-        <f t="shared" si="1"/>
-        <v>Disciplina socio-umana I</v>
-      </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="K34" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21">
-        <v>1</v>
-      </c>
-      <c r="O34" s="21"/>
-      <c r="Q34" t="str">
-        <f t="shared" si="3"/>
-        <v>DC</v>
-      </c>
-      <c r="R34" t="str">
-        <f t="shared" si="2"/>
-        <v>DI</v>
-      </c>
-      <c r="S34">
-        <f>SUM(C10:E10)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" ht="38.25" spans="1:19">
-      <c r="A35" t="str">
-        <f t="shared" si="1"/>
-        <v>Limbi moderne 1</v>
-      </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="K35" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21">
-        <v>1</v>
-      </c>
-      <c r="O35" s="21"/>
-      <c r="Q35" t="str">
-        <f t="shared" si="3"/>
-        <v>DC</v>
-      </c>
-      <c r="R35" t="str">
-        <f t="shared" si="2"/>
-        <v>DI</v>
-      </c>
-      <c r="S35">
-        <f>SUM(C11:E11)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" ht="29" customHeight="1" spans="1:19">
-      <c r="A36" t="str">
-        <f t="shared" si="1"/>
-        <v>Educatie fizica si sport I</v>
-      </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="K36" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21">
-        <v>1</v>
-      </c>
-      <c r="O36" s="21"/>
-      <c r="Q36" t="str">
-        <f t="shared" si="3"/>
-        <v>DC</v>
-      </c>
-      <c r="R36" t="str">
-        <f t="shared" si="2"/>
-        <v>DI</v>
-      </c>
-      <c r="S36">
-        <f>SUM(C12:E12)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" ht="19" customHeight="1" spans="1:18">
-      <c r="A37" t="str">
-        <f t="shared" si="1"/>
-        <v>Matematici speciale</v>
-      </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="K37" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21">
-        <v>1</v>
-      </c>
-      <c r="O37" s="21"/>
-      <c r="Q37" t="str">
-        <f t="shared" si="3"/>
-        <v>DF</v>
-      </c>
-      <c r="R37" t="str">
-        <f t="shared" si="2"/>
-        <v>DI</v>
-      </c>
-    </row>
-    <row r="38" ht="27" customHeight="1" spans="1:18">
-      <c r="A38" t="str">
-        <f t="shared" si="1"/>
-        <v>Desen tehnic si infografica I</v>
-      </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="K38" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21">
-        <v>1</v>
-      </c>
-      <c r="O38" s="21"/>
-      <c r="Q38" t="str">
-        <f t="shared" si="3"/>
-        <v>DF</v>
-      </c>
-      <c r="R38" t="str">
-        <f t="shared" si="2"/>
-        <v>DI</v>
-      </c>
-    </row>
-    <row r="39" ht="33" customHeight="1" spans="1:18">
-      <c r="A39" t="str">
-        <f t="shared" si="1"/>
-        <v>Programarea calculatoarelor si limbaje de programare II</v>
-      </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="K39" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21">
-        <v>1</v>
-      </c>
-      <c r="O39" s="21"/>
-      <c r="Q39" t="str">
-        <f t="shared" si="3"/>
-        <v>DF</v>
-      </c>
-      <c r="R39" t="str">
-        <f t="shared" si="2"/>
-        <v>DI</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18">
-      <c r="A40" t="str">
-        <f t="shared" si="1"/>
         <v>Fizica</v>
       </c>
       <c r="J40" t="s">
@@ -4182,24 +4402,45 @@
       <c r="K40" t="s">
         <v>113</v>
       </c>
-      <c r="L40"/>
-      <c r="M40"/>
-      <c r="N40" s="21">
-        <v>1</v>
-      </c>
-      <c r="O40"/>
+      <c r="N40" s="20">
+        <v>1</v>
+      </c>
       <c r="Q40" t="str">
+        <f t="shared" si="9"/>
+        <v>DF</v>
+      </c>
+      <c r="R40" t="str">
         <f t="shared" si="3"/>
-        <v>DF</v>
-      </c>
-      <c r="R40" t="str">
+        <v>DI</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31">
+      <c r="A41" t="str">
         <f t="shared" si="2"/>
-        <v>DI</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18">
-      <c r="A41" t="str">
-        <f t="shared" si="1"/>
         <v>Tehnologia materialelor</v>
       </c>
       <c r="J41" t="s">
@@ -4208,21 +4449,45 @@
       <c r="K41" t="s">
         <v>115</v>
       </c>
-      <c r="N41" s="21">
+      <c r="N41" s="20">
         <v>1</v>
       </c>
       <c r="Q41" t="str">
+        <f t="shared" si="9"/>
+        <v>DD</v>
+      </c>
+      <c r="R41" t="str">
         <f t="shared" si="3"/>
-        <v>DD</v>
-      </c>
-      <c r="R41" t="str">
+        <v>DI</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31">
+      <c r="A42" t="str">
         <f t="shared" si="2"/>
-        <v>DI</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18">
-      <c r="A42" t="str">
-        <f t="shared" si="1"/>
         <v>Mecanica I</v>
       </c>
       <c r="J42" t="s">
@@ -4231,21 +4496,45 @@
       <c r="K42" t="s">
         <v>117</v>
       </c>
-      <c r="N42" s="21">
+      <c r="N42" s="20">
         <v>1</v>
       </c>
       <c r="Q42" t="str">
+        <f t="shared" si="9"/>
+        <v>DD</v>
+      </c>
+      <c r="R42" t="str">
         <f t="shared" si="3"/>
-        <v>DD</v>
-      </c>
-      <c r="R42" t="str">
+        <v>DI</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31">
+      <c r="A43" t="str">
         <f t="shared" si="2"/>
-        <v>DI</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18">
-      <c r="A43" t="str">
-        <f t="shared" si="1"/>
         <v>Disciplina socio-umana II</v>
       </c>
       <c r="J43" t="s">
@@ -4254,21 +4543,45 @@
       <c r="K43" t="s">
         <v>119</v>
       </c>
-      <c r="N43" s="21">
+      <c r="N43" s="20">
         <v>1</v>
       </c>
       <c r="Q43" t="str">
+        <f t="shared" si="9"/>
+        <v>DC</v>
+      </c>
+      <c r="R43" t="str">
         <f t="shared" si="3"/>
-        <v>DC</v>
-      </c>
-      <c r="R43" t="str">
+        <v>DO</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31">
+      <c r="A44" t="str">
         <f t="shared" si="2"/>
-        <v>DO</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18">
-      <c r="A44" t="str">
-        <f t="shared" si="1"/>
         <v>Etica si integritate academica</v>
       </c>
       <c r="J44" t="s">
@@ -4277,21 +4590,45 @@
       <c r="K44" t="s">
         <v>121</v>
       </c>
-      <c r="N44" s="21">
+      <c r="N44" s="20">
         <v>1</v>
       </c>
       <c r="Q44" t="str">
+        <f t="shared" si="9"/>
+        <v>DC</v>
+      </c>
+      <c r="R44" t="str">
         <f t="shared" si="3"/>
-        <v>DC</v>
-      </c>
-      <c r="R44" t="str">
+        <v>DO</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31">
+      <c r="A45" t="str">
         <f t="shared" si="2"/>
-        <v>DO</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18">
-      <c r="A45" t="str">
-        <f t="shared" si="1"/>
         <v>Limbi moderne 2</v>
       </c>
       <c r="J45" t="s">
@@ -4300,21 +4637,45 @@
       <c r="K45" t="s">
         <v>123</v>
       </c>
-      <c r="N45" s="21">
+      <c r="N45" s="20">
         <v>1</v>
       </c>
       <c r="Q45" t="str">
+        <f t="shared" si="9"/>
+        <v>DC</v>
+      </c>
+      <c r="R45" t="str">
         <f t="shared" si="3"/>
-        <v>DC</v>
-      </c>
-      <c r="R45" t="str">
+        <v>DI</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31">
+      <c r="A46" t="str">
         <f t="shared" si="2"/>
-        <v>DI</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18">
-      <c r="A46" t="str">
-        <f t="shared" si="1"/>
         <v>Educatie fizica si sport II</v>
       </c>
       <c r="J46" t="s">
@@ -4323,21 +4684,45 @@
       <c r="K46" t="s">
         <v>125</v>
       </c>
-      <c r="N46" s="21">
+      <c r="N46" s="20">
         <v>1</v>
       </c>
       <c r="Q46" t="str">
+        <f t="shared" si="9"/>
+        <v>DC</v>
+      </c>
+      <c r="R46" t="str">
         <f t="shared" si="3"/>
-        <v>DC</v>
-      </c>
-      <c r="R46" t="str">
+        <v>DI</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31">
+      <c r="A47" t="str">
         <f t="shared" si="2"/>
-        <v>DI</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18">
-      <c r="A47" t="str">
-        <f t="shared" si="1"/>
         <v>Practica de domeniu I (2 sapt)</v>
       </c>
       <c r="J47" t="s">
@@ -4346,16 +4731,40 @@
       <c r="K47" t="s">
         <v>127</v>
       </c>
-      <c r="N47" s="21">
+      <c r="N47" s="20">
         <v>1</v>
       </c>
       <c r="Q47" t="str">
+        <f t="shared" si="9"/>
+        <v>DD</v>
+      </c>
+      <c r="R47" t="str">
         <f t="shared" si="3"/>
-        <v>DD</v>
-      </c>
-      <c r="R47" t="str">
-        <f t="shared" si="2"/>
         <v>DI</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <f t="shared" si="15"/>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Plan de invatamant.xlsx
+++ b/Plan de invatamant.xlsx
@@ -583,7 +583,7 @@
     <t>Universitatea Tehnică din Cluj-Napoca</t>
   </si>
   <si>
-    <t>Facultatea de Autovehicule Rutiere Mecatronicǎ şi Mecanicǎ</t>
+    <t xml:space="preserve"> Autovehicule Rutiere Mecatronicǎ şi Mecanicǎ</t>
   </si>
   <si>
     <t>Autovehicule rutiere și transporturi</t>
@@ -2169,8 +2169,8 @@
   <sheetPr/>
   <dimension ref="A1:AE47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="X34" sqref="X34"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>

--- a/Plan de invatamant.xlsx
+++ b/Plan de invatamant.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="128">
   <si>
     <r>
       <rPr>
@@ -2169,8 +2170,8 @@
   <sheetPr/>
   <dimension ref="A1:AE47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="P32" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:AE47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -3762,18 +3763,32 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" ht="25.5" spans="1:31">
+    <row r="29" ht="140.25" spans="1:31">
       <c r="A29" t="str">
         <f t="shared" ref="A29:A47" si="2">RIGHT(A5,LEN(A5)-8)</f>
         <v>Chimie</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
+      <c r="C29" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I29" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="J29" s="20" t="s">
         <v>90</v>
       </c>
@@ -3826,13 +3841,27 @@
         <f t="shared" si="2"/>
         <v>Stiinta si ingineria materialelor</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
+      <c r="C30" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I30" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="J30" s="20" t="s">
         <v>92</v>
       </c>
@@ -3883,13 +3912,27 @@
         <f t="shared" si="2"/>
         <v>Geometrie descriptiva</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
+      <c r="C31" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I31" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="J31" s="20" t="s">
         <v>94</v>
       </c>
@@ -3940,13 +3983,27 @@
         <f t="shared" si="2"/>
         <v>Algebra liniara, geometrie analitica si diferentiala</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
+      <c r="C32" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I32" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="J32" s="20" t="s">
         <v>96</v>
       </c>
@@ -3997,13 +4054,27 @@
         <f t="shared" si="2"/>
         <v>Programarea calculatoarelor si limbaje de programare I</v>
       </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
+      <c r="C33" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I33" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="J33" s="20" t="s">
         <v>98</v>
       </c>
@@ -4054,13 +4125,27 @@
         <f t="shared" si="2"/>
         <v>Disciplina socio-umana I</v>
       </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
+      <c r="C34" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I34" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="J34" s="20" t="s">
         <v>100</v>
       </c>
@@ -4106,18 +4191,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" ht="38.25" spans="1:31">
+    <row r="35" ht="28.3" customHeight="1" spans="1:31">
       <c r="A35" t="str">
         <f t="shared" si="2"/>
         <v>Limbi moderne 1</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
+      <c r="C35" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I35" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="J35" s="20" t="s">
         <v>102</v>
       </c>
@@ -4163,18 +4262,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" ht="29" customHeight="1" spans="1:31">
+    <row r="36" ht="28.3" customHeight="1" spans="1:31">
       <c r="A36" t="str">
         <f t="shared" si="2"/>
         <v>Educatie fizica si sport I</v>
       </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
+      <c r="C36" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I36" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="J36" s="20" t="s">
         <v>104</v>
       </c>
@@ -4220,18 +4333,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" ht="19" customHeight="1" spans="1:31">
+    <row r="37" ht="28.3" customHeight="1" spans="1:31">
       <c r="A37" t="str">
         <f t="shared" si="2"/>
         <v>Matematici speciale</v>
       </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
+      <c r="C37" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="H37" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I37" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="J37" s="20" t="s">
         <v>106</v>
       </c>
@@ -4277,18 +4404,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" ht="27" customHeight="1" spans="1:31">
+    <row r="38" ht="28.3" customHeight="1" spans="1:31">
       <c r="A38" t="str">
         <f t="shared" si="2"/>
         <v>Desen tehnic si infografica I</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
+      <c r="C38" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="H38" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I38" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="J38" s="20" t="s">
         <v>108</v>
       </c>
@@ -4334,18 +4475,32 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" ht="21" customHeight="1" spans="1:31">
+    <row r="39" ht="28.3" customHeight="1" spans="1:31">
       <c r="A39" t="str">
         <f t="shared" si="2"/>
         <v>Programarea calculatoarelor si limbaje de programare II</v>
       </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
+      <c r="C39" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G39" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="H39" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I39" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="J39" s="20" t="s">
         <v>110</v>
       </c>
@@ -4391,11 +4546,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:31">
+    <row r="40" ht="28.3" customHeight="1" spans="1:31">
       <c r="A40" t="str">
         <f t="shared" si="2"/>
         <v>Fizica</v>
       </c>
+      <c r="C40" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G40" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="H40" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I40" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="J40" t="s">
         <v>112</v>
       </c>
@@ -4438,11 +4614,32 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:31">
+    <row r="41" ht="28.3" customHeight="1" spans="1:31">
       <c r="A41" t="str">
         <f t="shared" si="2"/>
         <v>Tehnologia materialelor</v>
       </c>
+      <c r="C41" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="H41" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I41" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="J41" t="s">
         <v>114</v>
       </c>
@@ -4485,11 +4682,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:31">
+    <row r="42" ht="28.3" customHeight="1" spans="1:31">
       <c r="A42" t="str">
         <f t="shared" si="2"/>
         <v>Mecanica I</v>
       </c>
+      <c r="C42" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F42" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G42" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="H42" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I42" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="J42" t="s">
         <v>116</v>
       </c>
@@ -4532,11 +4750,32 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:31">
+    <row r="43" ht="28.3" customHeight="1" spans="1:31">
       <c r="A43" t="str">
         <f t="shared" si="2"/>
         <v>Disciplina socio-umana II</v>
       </c>
+      <c r="C43" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G43" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="H43" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I43" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="J43" t="s">
         <v>118</v>
       </c>
@@ -4579,11 +4818,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:31">
+    <row r="44" ht="28.3" customHeight="1" spans="1:31">
       <c r="A44" t="str">
         <f t="shared" si="2"/>
         <v>Etica si integritate academica</v>
       </c>
+      <c r="C44" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G44" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="H44" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I44" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="J44" t="s">
         <v>120</v>
       </c>
@@ -4626,11 +4886,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:31">
+    <row r="45" ht="28.3" customHeight="1" spans="1:31">
       <c r="A45" t="str">
         <f t="shared" si="2"/>
         <v>Limbi moderne 2</v>
       </c>
+      <c r="C45" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G45" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="H45" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I45" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="J45" t="s">
         <v>122</v>
       </c>
@@ -4673,11 +4954,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:31">
+    <row r="46" ht="28.3" customHeight="1" spans="1:31">
       <c r="A46" t="str">
         <f t="shared" si="2"/>
         <v>Educatie fizica si sport II</v>
       </c>
+      <c r="C46" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F46" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G46" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="H46" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I46" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="J46" t="s">
         <v>124</v>
       </c>
@@ -4720,10 +5022,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:31">
+    <row r="47" ht="28.3" customHeight="1" spans="1:31">
       <c r="A47" t="str">
         <f t="shared" si="2"/>
         <v>Practica de domeniu I (2 sapt)</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G47" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="H47" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I47" s="20" t="s">
+        <v>87</v>
       </c>
       <c r="J47" t="s">
         <v>126</v>
@@ -5059,4 +5382,20 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Plan de invatamant.xlsx
+++ b/Plan de invatamant.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18495" windowHeight="12345"/>
+    <workbookView windowWidth="28800" windowHeight="12525"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -727,11 +727,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.0"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="0.0"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -797,9 +797,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -813,44 +881,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -867,7 +898,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -875,7 +906,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -889,45 +927,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -949,19 +949,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,37 +1003,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1015,31 +1021,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1051,73 +1033,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1130,6 +1046,90 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1322,15 +1322,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -1347,17 +1338,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1380,8 +1360,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1400,145 +1391,154 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2170,32 +2170,33 @@
   <sheetPr/>
   <dimension ref="A1:AE47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="P32" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:AE47"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B24" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="41.6083333333333" customWidth="1"/>
-    <col min="2" max="4" width="5.55833333333333" customWidth="1"/>
+    <col min="2" max="2" width="5.55833333333333" customWidth="1"/>
+    <col min="3" max="3" width="19.35" customWidth="1"/>
+    <col min="4" max="4" width="5.55833333333333" customWidth="1"/>
     <col min="5" max="5" width="4.66666666666667" customWidth="1"/>
     <col min="6" max="6" width="4.225" customWidth="1"/>
     <col min="7" max="7" width="7.28333333333333" customWidth="1"/>
     <col min="8" max="8" width="7.35" customWidth="1"/>
     <col min="9" max="9" width="5.925" customWidth="1"/>
     <col min="10" max="10" width="7.425" customWidth="1"/>
-    <col min="11" max="13" width="6.225" customWidth="1"/>
+    <col min="11" max="11" width="11.8416666666667" customWidth="1"/>
+    <col min="12" max="13" width="6.225" customWidth="1"/>
     <col min="14" max="14" width="6.66666666666667" customWidth="1"/>
-    <col min="15" max="18" width="8.03333333333333" customWidth="1"/>
+    <col min="15" max="15" width="5.65" customWidth="1"/>
+    <col min="16" max="16" width="3.475" customWidth="1"/>
+    <col min="17" max="18" width="8.03333333333333" customWidth="1"/>
     <col min="19" max="19" width="7.05833333333333" customWidth="1"/>
     <col min="20" max="20" width="6.03333333333333" customWidth="1"/>
     <col min="21" max="21" width="8" customWidth="1"/>
     <col min="22" max="23" width="7.49166666666667" customWidth="1"/>
-    <col min="24" max="24" width="6.225" customWidth="1"/>
-    <col min="25" max="25" width="8.44166666666667" customWidth="1"/>
-    <col min="26" max="26" width="5.775" customWidth="1"/>
-    <col min="27" max="27" width="6" customWidth="1"/>
-    <col min="28" max="28" width="13.3333333333333" customWidth="1"/>
+    <col min="24" max="30" width="3.48333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1" spans="1:28">
@@ -3763,7 +3764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" ht="140.25" spans="1:31">
+    <row r="29" ht="31" customHeight="1" spans="1:31">
       <c r="A29" t="str">
         <f t="shared" ref="A29:A47" si="2">RIGHT(A5,LEN(A5)-8)</f>
         <v>Chimie</v>
@@ -5181,7 +5182,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F11"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="5"/>
